--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.14660000000001</v>
+        <v>-22.13250000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.918100000000003</v>
+        <v>-7.889400000000003</v>
       </c>
     </row>
     <row r="11">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.533199999999995</v>
+        <v>-8.314899999999996</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.4579</v>
+        <v>-11.47439999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.44959999999998</v>
+        <v>-19.77039999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.571299999999997</v>
+        <v>-7.840299999999998</v>
       </c>
     </row>
     <row r="22">
@@ -746,12 +746,12 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.201700000000006</v>
+        <v>-8.168000000000005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.62949999999998</v>
+        <v>-20.50799999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,18 +768,18 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.8718</v>
+        <v>5.653300000000002</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.929799999999995</v>
+        <v>-6.850799999999996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.84769999999999</v>
+        <v>-21.871</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.1511</v>
+        <v>6.512800000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.586100000000009</v>
+        <v>9.459200000000006</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.202100000000005</v>
+        <v>5.043100000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.607399999999991</v>
+        <v>-7.818899999999996</v>
       </c>
     </row>
     <row r="47">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.816200000000004</v>
+        <v>5.653700000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.041199999999999</v>
+        <v>5.866899999999996</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.11659999999999</v>
+        <v>-12.17920000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.541299999999996</v>
+        <v>5.595399999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.92279999999999</v>
+        <v>-21.94289999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>5.814300000000003</v>
+        <v>5.821700000000002</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.026900000000001</v>
+        <v>4.999400000000003</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.1883</v>
+        <v>-13.11249999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1222,12 +1222,12 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.7096</v>
+        <v>-8.697400000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.31360000000001</v>
+        <v>-22.2009</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2667</v>
+        <v>-22.20790000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.207099999999999</v>
+        <v>-8.243199999999998</v>
       </c>
     </row>
     <row r="62">
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.607</v>
+        <v>-10.60319999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.112200000000002</v>
+        <v>-6.983199999999997</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65129999999998</v>
+        <v>-21.65539999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.713500000000005</v>
+        <v>6.888100000000004</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.522700000000002</v>
+        <v>-8.339400000000007</v>
       </c>
     </row>
     <row r="75">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.04730000000001</v>
+        <v>-20.08110000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.16060000000001</v>
+        <v>-13.11360000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8048</v>
+        <v>-21.895</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.279300000000001</v>
+        <v>5.1127</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,13 +1650,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.310999999999992</v>
+        <v>5.315499999999997</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.553999999999998</v>
+        <v>-8.392399999999995</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.906299999999992</v>
+        <v>-7.980199999999991</v>
       </c>
     </row>
     <row r="89">
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.4241</v>
+        <v>-10.50740000000001</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.21320000000001</v>
+        <v>-21.20660000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.3741</v>
+        <v>-10.3815</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.04000000000001</v>
+        <v>-10.16940000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.168900000000001</v>
+        <v>-8.195100000000002</v>
       </c>
     </row>
     <row r="101">
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.852899999999999</v>
+        <v>5.1887</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
